--- a/data_year/zb/金融业/股票发行量和筹资额.xlsx
+++ b/data_year/zb/金融业/股票发行量和筹资额.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,596 +483,316 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>145.68</v>
+        <v>553.95280624</v>
       </c>
       <c r="C2" t="n">
-        <v>1527.03</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="E2" t="n">
-        <v>13.99</v>
-      </c>
+        <v>9606.309999999999</v>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
-        <v>359.26</v>
+        <v>367.04</v>
       </c>
       <c r="G2" t="n">
-        <v>562.21</v>
+        <v>2365.62</v>
       </c>
       <c r="H2" t="n">
-        <v>512.04</v>
+        <v>920.99280624</v>
       </c>
       <c r="I2" t="n">
-        <v>2103.24</v>
+        <v>11971.93</v>
       </c>
       <c r="J2" t="n">
-        <v>519.46</v>
+        <v>1438.25</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>93</v>
+        <v>163.99402</v>
       </c>
       <c r="C3" t="n">
-        <v>1182.13</v>
+        <v>5073.07</v>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
-        <v>48.48</v>
+        <v>108.37</v>
       </c>
       <c r="G3" t="n">
-        <v>70.20999999999999</v>
+        <v>741.12</v>
       </c>
       <c r="H3" t="n">
-        <v>141.48</v>
+        <v>272.36402</v>
       </c>
       <c r="I3" t="n">
-        <v>1252.34</v>
+        <v>5814.19</v>
       </c>
       <c r="J3" t="n">
-        <v>430.63</v>
+        <v>421.96</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>134.2</v>
+        <v>78.86209927</v>
       </c>
       <c r="C4" t="n">
-        <v>779.75</v>
+        <v>3127.54</v>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>157.54</v>
+        <v>220.95</v>
       </c>
       <c r="G4" t="n">
-        <v>181.99</v>
+        <v>1006.84</v>
       </c>
       <c r="H4" t="n">
-        <v>291.74</v>
+        <v>299.81209927</v>
       </c>
       <c r="I4" t="n">
-        <v>961.75</v>
+        <v>4134.38</v>
       </c>
       <c r="J4" t="n">
-        <v>56.61</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>83.64</v>
-      </c>
+          <t>2013年</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>819.5599999999999</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>3.54</v>
-      </c>
+        <v>2802.76</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>196.79</v>
+        <v>259.92</v>
       </c>
       <c r="G5" t="n">
-        <v>534.65</v>
+        <v>1066.12</v>
       </c>
       <c r="H5" t="n">
-        <v>281.43</v>
+        <v>259.92</v>
       </c>
       <c r="I5" t="n">
-        <v>1357.75</v>
-      </c>
-      <c r="J5" t="n">
-        <v>74.79000000000001</v>
-      </c>
+        <v>2802.76</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>54.88</v>
+        <v>70.10258708000001</v>
       </c>
       <c r="C6" t="n">
-        <v>835.71</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="E6" t="n">
-        <v>27.16</v>
-      </c>
+        <v>4834.04</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>171.51</v>
+        <v>284.4</v>
       </c>
       <c r="G6" t="n">
-        <v>648.08</v>
+        <v>2253.4</v>
       </c>
       <c r="H6" t="n">
-        <v>227.92</v>
+        <v>354.50258708</v>
       </c>
       <c r="I6" t="n">
-        <v>1510.94</v>
+        <v>8498</v>
       </c>
       <c r="J6" t="n">
-        <v>104.54</v>
+        <v>137.98</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13.8</v>
+        <v>175.86</v>
       </c>
       <c r="C7" t="n">
-        <v>338.13</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
+        <v>8295.139999999999</v>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>553.25</v>
+        <v>444.15</v>
       </c>
       <c r="G7" t="n">
-        <v>1544.38</v>
+        <v>2679.71</v>
       </c>
       <c r="H7" t="n">
-        <v>567.05</v>
+        <v>595.67</v>
       </c>
       <c r="I7" t="n">
-        <v>1882.51</v>
+        <v>16362</v>
       </c>
       <c r="J7" t="n">
-        <v>2.62</v>
+        <v>36.43</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>351.11</v>
+        <v>137.47</v>
       </c>
       <c r="C8" t="n">
-        <v>2463.7</v>
+        <v>15020.79</v>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>936.66</v>
+        <v>252.67</v>
       </c>
       <c r="G8" t="n">
-        <v>3130.59</v>
+        <v>1236.63</v>
       </c>
       <c r="H8" t="n">
-        <v>1287.77</v>
+        <v>390.14</v>
       </c>
       <c r="I8" t="n">
-        <v>5594.29</v>
+        <v>20297</v>
       </c>
       <c r="J8" t="n">
-        <v>4.32</v>
+        <v>298.51</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>413.27</v>
-      </c>
-      <c r="C9" t="n">
-        <v>7722.99</v>
-      </c>
+          <t>2017年</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="n">
-        <v>223.9709</v>
-      </c>
-      <c r="G9" t="n">
-        <v>957.179999999999</v>
-      </c>
-      <c r="H9" t="n">
-        <v>637.2409</v>
-      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>8680.17</v>
-      </c>
-      <c r="J9" t="n">
-        <v>227.68</v>
-      </c>
+        <v>15536</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>114.957234</v>
-      </c>
-      <c r="C10" t="n">
-        <v>3457.75</v>
-      </c>
+          <t>2018年</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="n">
-        <v>65.38</v>
-      </c>
-      <c r="G10" t="n">
-        <v>317.26</v>
-      </c>
-      <c r="H10" t="n">
-        <v>180.337234</v>
-      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>3852.21</v>
-      </c>
-      <c r="J10" t="n">
-        <v>151.57</v>
-      </c>
+        <v>11378</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>244.46957141</v>
-      </c>
-      <c r="C11" t="n">
-        <v>5004.9</v>
-      </c>
+          <t>2019年</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="n">
-        <v>155.58</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1073.18</v>
-      </c>
-      <c r="H11" t="n">
-        <v>400.04957141</v>
-      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>6124.69</v>
-      </c>
-      <c r="J11" t="n">
-        <v>105.97</v>
-      </c>
+        <v>12539</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>553.95280624</v>
-      </c>
-      <c r="C12" t="n">
-        <v>9606.309999999999</v>
-      </c>
+          <t>2020年</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="n">
-        <v>367.04</v>
-      </c>
-      <c r="G12" t="n">
-        <v>2365.62</v>
-      </c>
-      <c r="H12" t="n">
-        <v>920.99280624</v>
-      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>11971.93</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1438.25</v>
-      </c>
+        <v>14222</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>163.99402</v>
-      </c>
-      <c r="C13" t="n">
-        <v>5073.07</v>
-      </c>
+          <t>2021年</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="n">
-        <v>108.37</v>
-      </c>
-      <c r="G13" t="n">
-        <v>741.12</v>
-      </c>
-      <c r="H13" t="n">
-        <v>272.36402</v>
-      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
-        <v>5814.19</v>
-      </c>
-      <c r="J13" t="n">
-        <v>421.96</v>
-      </c>
+        <v>15401</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>78.86209927</v>
-      </c>
-      <c r="C14" t="n">
-        <v>3127.54</v>
-      </c>
+          <t>2022年</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="n">
-        <v>220.95</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1006.84</v>
-      </c>
-      <c r="H14" t="n">
-        <v>299.81209927</v>
-      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="n">
-        <v>4134.38</v>
-      </c>
-      <c r="J14" t="n">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="n">
-        <v>2802.76</v>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="n">
-        <v>259.92</v>
-      </c>
-      <c r="G15" t="n">
-        <v>1066.12</v>
-      </c>
-      <c r="H15" t="n">
-        <v>259.92</v>
-      </c>
-      <c r="I15" t="n">
-        <v>2802.76</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>70.10258708000001</v>
-      </c>
-      <c r="C16" t="n">
-        <v>4834.04</v>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="n">
-        <v>284.4</v>
-      </c>
-      <c r="G16" t="n">
-        <v>2253.4</v>
-      </c>
-      <c r="H16" t="n">
-        <v>354.50258708</v>
-      </c>
-      <c r="I16" t="n">
-        <v>8498</v>
-      </c>
-      <c r="J16" t="n">
-        <v>137.98</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>175.86</v>
-      </c>
-      <c r="C17" t="n">
-        <v>8295.139999999999</v>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="n">
-        <v>444.15</v>
-      </c>
-      <c r="G17" t="n">
-        <v>2679.71</v>
-      </c>
-      <c r="H17" t="n">
-        <v>595.67</v>
-      </c>
-      <c r="I17" t="n">
-        <v>16362</v>
-      </c>
-      <c r="J17" t="n">
-        <v>36.43</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>137.47</v>
-      </c>
-      <c r="C18" t="n">
-        <v>15020.79</v>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="n">
-        <v>252.67</v>
-      </c>
-      <c r="G18" t="n">
-        <v>1236.63</v>
-      </c>
-      <c r="H18" t="n">
-        <v>390.14</v>
-      </c>
-      <c r="I18" t="n">
-        <v>20297</v>
-      </c>
-      <c r="J18" t="n">
-        <v>298.51</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="n">
-        <v>15536</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="n">
-        <v>11378</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="n">
-        <v>12539</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="n">
-        <v>14222</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
+        <v>14175</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
